--- a/biology/Zoologie/Outram_Bangs/Outram_Bangs.xlsx
+++ b/biology/Zoologie/Outram_Bangs/Outram_Bangs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Outram Bangs est un zoologiste américain, né le 12 janvier 1863 à Watertown (Massachusetts) et mort le 22 septembre 1932.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Harvard de 1880 à 1884 et devient le conservateur des mammifères au Museum of Comparative Zoology en 1900.
 Il collecte de plus de 10 000 peaux et crânes de mammifères, dont 100 spécimens de leur espèce, qui sont présentés au Harvard College en 1899.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Durant sa carrière, Bangs écrit plus de 70 livres et articles, dont 55 sur les mammifères. La liste ci-dessous n’est donc pas exhaustive.
 The hummingbirds of the Santa Marta Region of Colombia. American Ornithologists' Union, New York (1899)
